--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table34.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3BA70-B4BE-0D46-807C-10F9D7FB3392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16133C2-D5D0-394F-B1EB-CDDF4D15C294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20840" yWindow="3040" windowWidth="17420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Value</t>
   </si>
@@ -37,15 +37,9 @@
     <t>Salmon</t>
   </si>
   <si>
-    <t>A Ilia core</t>
-  </si>
-  <si>
     <t>Dover sole</t>
   </si>
   <si>
-    <t>Rockfbh</t>
-  </si>
-  <si>
     <t>Crescent City</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t xml:space="preserve">English sole </t>
   </si>
   <si>
-    <t xml:space="preserve">(Wan shrimp </t>
-  </si>
-  <si>
     <t xml:space="preserve">Perch </t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t xml:space="preserve">Sablefish  </t>
   </si>
   <si>
-    <t xml:space="preserve">English s&lt;i|e </t>
-  </si>
-  <si>
     <t>lingrod</t>
   </si>
   <si>
@@ -130,18 +118,6 @@
     <t xml:space="preserve">Totals </t>
   </si>
   <si>
-    <t>I’etrale sole    1</t>
-  </si>
-  <si>
-    <t>Crab   i</t>
-  </si>
-  <si>
-    <t>Kockfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lb x sole </t>
-  </si>
-  <si>
     <t xml:space="preserve">lingeod </t>
   </si>
   <si>
@@ -173,6 +149,12 @@
   </si>
   <si>
     <t>All other</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>OCean shrimp</t>
   </si>
 </sst>
 </file>
@@ -538,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -567,7 +549,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>3534597</v>
@@ -581,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>357258</v>
@@ -595,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>195025</v>
@@ -609,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>148059</v>
@@ -623,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>134123</v>
@@ -637,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>117250</v>
@@ -651,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>83347</v>
@@ -665,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>59476</v>
@@ -679,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>37655</v>
@@ -693,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>24013</v>
@@ -707,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>18812</v>
@@ -721,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>16978</v>
@@ -735,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>10580</v>
@@ -749,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>10008</v>
@@ -763,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>5996</v>
@@ -777,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>17494</v>
@@ -791,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>1236074</v>
@@ -802,7 +784,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <f>SUM(C4:C18)-C19</f>
@@ -832,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>115837</v>
@@ -846,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <v>110907</v>
@@ -860,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>60402</v>
@@ -874,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>57158</v>
@@ -888,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>54692</v>
@@ -902,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>50697</v>
@@ -916,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>41027</v>
@@ -930,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>29542</v>
@@ -944,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>23048</v>
@@ -958,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>12704</v>
@@ -972,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <v>14351</v>
@@ -986,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2">
         <v>996683</v>
@@ -997,7 +979,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <f>SUM(C21:C32)-C33</f>
@@ -1010,10 +992,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
         <v>519099</v>
@@ -1024,7 +1006,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -1038,10 +1020,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>73173</v>
@@ -1052,10 +1034,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2">
         <v>24062</v>
@@ -1066,10 +1048,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
         <v>5170</v>
@@ -1080,10 +1062,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
         <v>10905</v>
@@ -1094,10 +1076,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2">
         <v>706666</v>
@@ -1108,7 +1090,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4">
         <f>SUM(C35:C40)-C41</f>
@@ -1121,10 +1103,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
         <v>125199</v>
@@ -1135,10 +1117,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2">
         <v>91045</v>
@@ -1149,10 +1131,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2">
         <v>90898</v>
@@ -1163,10 +1145,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2">
         <v>61394</v>
@@ -1177,7 +1159,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
@@ -1191,10 +1173,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2">
         <v>17881</v>
@@ -1205,10 +1187,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
         <v>16762</v>
@@ -1219,10 +1201,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2">
         <v>11931</v>
@@ -1233,10 +1215,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C51" s="2">
         <v>10351</v>
@@ -1247,10 +1229,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2">
         <v>9277</v>
@@ -1261,10 +1243,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>5458</v>
@@ -1275,10 +1257,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2">
         <v>7026</v>
@@ -1289,10 +1271,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2">
         <v>498386</v>
@@ -1303,7 +1285,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C56" s="4">
         <f>SUM(C43:C54)-C55</f>
@@ -1316,10 +1298,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
         <v>80894</v>
@@ -1330,10 +1312,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2">
         <v>7356</v>
@@ -1344,10 +1326,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" s="2">
         <v>86</v>
@@ -1358,10 +1340,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2">
         <v>88336</v>
@@ -1372,7 +1354,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C61" s="4">
         <f>SUM(C57:C59)-C60</f>
@@ -1385,7 +1367,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
@@ -1399,10 +1381,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="2">
         <v>294</v>
@@ -1413,10 +1395,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2">
         <v>7521</v>
@@ -1427,7 +1409,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C65" s="4">
         <f>SUM(C62:C63)-C64</f>
@@ -1440,10 +1422,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2">
         <v>931</v>
@@ -1454,10 +1436,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2">
         <v>931</v>
@@ -1468,7 +1450,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table34.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16133C2-D5D0-394F-B1EB-CDDF4D15C294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEFD1E-E49E-3A4D-AD1B-A1161DA26984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20840" yWindow="3040" windowWidth="17420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Value</t>
   </si>
@@ -520,14 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -548,8 +547,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>3534597</v>
